--- a/analise de eventos - compras.xlsx
+++ b/analise de eventos - compras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprietário\Documents\eng_requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14822D68-18BF-4690-BC5F-93E72AF4ECF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70520BD2-A353-4361-BE61-1773677D3675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D681D141-2C58-4DB0-BDD1-EEB5B9F9FEAB}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Capacidade</t>
   </si>
@@ -103,16 +102,10 @@
     <t>Fornecedor encaminha as peças para a loja;</t>
   </si>
   <si>
-    <t>x(6)</t>
-  </si>
-  <si>
     <t>Gerente abre um pedido e encaminha ordem de compra para fornecedor;</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Atendente cadastra peças</t>
   </si>
   <si>
     <t>FA</t>
@@ -323,12 +316,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60CAE40-4654-4B2A-8332-5A8E6A4A4F66}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,15 +767,15 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -793,15 +786,15 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -812,15 +805,15 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -829,17 +822,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -850,15 +843,15 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -869,86 +862,57 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
